--- a/console/Networking/agExcel/components/removeVM.xlsx
+++ b/console/Networking/agExcel/components/removeVM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728448E-87B1-9449-99FA-C9B148393761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29520" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -112,23 +118,27 @@
     </r>
   </si>
   <si>
-    <t>Once being manually removed from the Availability Group, the Virtual Machines will not have attributes of Availability Group and cannot be added to the Availability Group. Please carry out the operation with care.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm to remove instances </t>
-  </si>
-  <si>
-    <t>The instance is removed from the Availability Group only and is not deleted</t>
-  </si>
-  <si>
-    <t>The instance is removed from the Availability Group and deleted</t>
+    <t>Once being manually removed from the Availability Group, the VM will not have attributes of Availability Group and cannot be moved in  the Availability Group.Attention please.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The instance will be removed from the Availability Group and be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm to remove the VM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The instance will be removed from the Availability Group only and  not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,22 +527,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="66">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -551,10 +561,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="38">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -562,10 +572,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="38">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -573,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
